--- a/biology/Médecine/Information_médicale/Information_médicale.xlsx
+++ b/biology/Médecine/Information_médicale/Information_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Information_m%C3%A9dicale</t>
+          <t>Information_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Information_m%C3%A9dicale</t>
+          <t>Information_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'information médicale est une activité relativement récente datant d'une quinzaine d'années. Les médecins qui l'exercent sont appelés médecins DIM (Département d'Information Médicale).
 Depuis l'apparition du PMSI (Programme de Médicalisation du Système d'Information) les médecins DIM sont chargés de recueillir, contrôler, et transmettre toutes les informations médicalisées structurées et codées depuis les établissements d'hospitalisation vers les organismes payeurs et contrôleurs.
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Information_m%C3%A9dicale</t>
+          <t>Information_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,7 +554,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« http://www.cnim.org/ »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
  Portail de la médecine                     </t>
